--- a/biology/Botanique/Dendroclimatologie/Dendroclimatologie.xlsx
+++ b/biology/Botanique/Dendroclimatologie/Dendroclimatologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dendroclimatologie est la science qui à partir de l’étude des cernes annuels de croissance des arbres (ou d'autres plantes ligneuses) étudie les climats passés (paléoclimatologie[2]) et le changement climatique en cours[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dendroclimatologie est la science qui à partir de l’étude des cernes annuels de croissance des arbres (ou d'autres plantes ligneuses) étudie les climats passés (paléoclimatologie) et le changement climatique en cours
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dendroclimatologie se base principalement sur deux propriétés des anneaux de croissance du bois : 
 Ils sont plus larges quand les conditions environnementales favorisent leur croissance, plus étroits quand les temps sont difficiles pour l'arbre ;
 la densité maximale du bois final (ou MXD pour « maximum latewood density ») se montre encore plus intéressante que la simple largeur des cernes. Elle a permis de reconstituer de nombreux climats locaux depuis des siècles et jusqu'à milliers d’années.
-La corrélation du climat local (température, pluviométrie...) avec la largeur des cernes (et d'autres facteurs d'influences) ont été vérifiés par des études faite sur des arbres ayant vécu depuis que l'on mesure précisément la température de l'air et la pluviométrie, y compris en zone froide (où un phénomène de décorrélation a été repéré dans la Taïga) et en zone aride (en zone péri saharienne notamment, où on a pu à l'occasion montrer d'une part que les croissances du blé et des arbres ne sont pas corrélés, et d'autre part que les sécheresses sont en Algérie plus intenses et fréquentes depuis la fin du XXe siècle, et enfin que la pluviométrie est un facteur majeur d'influence, plus que la température ; elle atteint environ 75 % des variations de largeur de cernes du pin Pinus halepensis ; d'après la dendroclimatologie le record de durée de sécheresse est en Algérie de cinq ans (1877–1881)[4].
-En combinant les études sur les cernes avec des études de dendrochimie, dendrobiochimie[5] et d’autres données indirectes sur le climat, les scientifiques peuvent reconstituer plus finement les climats locaux, régionaux et mondiaux passés (paléoclimatologie).
-La dendrochimie et les analyses isotopiques[6] permettent d'obtenir des résultats encore plus précis, conduisant à une nouvelle discipline, la dendroécologie[7]
+La corrélation du climat local (température, pluviométrie...) avec la largeur des cernes (et d'autres facteurs d'influences) ont été vérifiés par des études faite sur des arbres ayant vécu depuis que l'on mesure précisément la température de l'air et la pluviométrie, y compris en zone froide (où un phénomène de décorrélation a été repéré dans la Taïga) et en zone aride (en zone péri saharienne notamment, où on a pu à l'occasion montrer d'une part que les croissances du blé et des arbres ne sont pas corrélés, et d'autre part que les sécheresses sont en Algérie plus intenses et fréquentes depuis la fin du XXe siècle, et enfin que la pluviométrie est un facteur majeur d'influence, plus que la température ; elle atteint environ 75 % des variations de largeur de cernes du pin Pinus halepensis ; d'après la dendroclimatologie le record de durée de sécheresse est en Algérie de cinq ans (1877–1881).
+En combinant les études sur les cernes avec des études de dendrochimie, dendrobiochimie et d’autres données indirectes sur le climat, les scientifiques peuvent reconstituer plus finement les climats locaux, régionaux et mondiaux passés (paléoclimatologie).
+La dendrochimie et les analyses isotopiques permettent d'obtenir des résultats encore plus précis, conduisant à une nouvelle discipline, la dendroécologie
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cernes de croissance d’arbre sont des indices du climat passé, au moins pour les raisons suivantes : 
 ils permettent souvent de bien dater l'arbre ou son bois (via la dendrochronologie, par la correspondance des anneaux d’échantillon à échantillon, qui permet de reconstruire le passé en utilisant des échantillons d'arbres morts depuis longtemps, récupérés dans les bâtiments ou meubles anciens ou lors de fouilles archéologiques).
@@ -582,7 +598,9 @@
           <t>Limitations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les facteurs limitants peuvent par exemple être :
 une couverture géographique insuffisante ;
@@ -621,7 +639,9 @@
           <t>Facteurs non-climatiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont notamment le sol, l'âge de l’arbre, l'occurrence et l'intensité d'incendies, la concurrence entre arbres, les différences génétiques, l'exploitation forestière ou toute autre perturbation humaine significative, ou encore l'impact des herbivores (en particulier le pâturage des bisons, moutons, chèvres) ou autre animaux capable d'écorcer le tronc de certains arbres, les infestations de ravageurs, les maladies et la concentration de CO2, d’ozone ou de polluant acide (SOx.)… 
 Pour éliminer les facteurs de confusion qui varient de manière aléatoire dans l'espace (d’un arbre à l’autre ou d’une parcelle à l’autre), une solution est de collecter suffisamment de données (⇒ davantage d'échantillons) pour compenser le « bruit » (la source de confusion). 
@@ -654,7 +674,9 @@
           <t>Effets non linéaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En général, les climatologues supposent une dépendance linéaire de la largeur de l'anneau à une variable d'intérêt (par exemple, l'humidité). Cependant, en deçà ou au-delà de certains seuils physiologiques de l'arbre, quand et si la variable change suffisamment, la réponse peut se stabiliser voire se retourner (trop de chaleur ou trop d'humidité ou trop de CO2 au-delà d'un certain seuil induit une diminution de croissance de l'arbre. 
 Des interactions entre facteurs sont possibles, qui peuvent alors induire des réponses non linéaires dans la croissance de l'arbre (ex :  "température x précipitations"). Ici aussi, l'étude du "peuplement limite" aide à isoler une variable d'intérêt. 
@@ -686,7 +708,9 @@
           <t>Inférences botaniques pour corriger les facteurs de confusion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les études et expériences botaniques aident à estimer l’impact des variables confusionnelles et parfois orientent les corrections correspondantes. 
 Ces expériences incluent :
@@ -722,25 +746,132 @@
           <t>Problème de divergence</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Dans le domaine de la dendroclimatologie, on dit qu'il y a anomalie de divergence quand les courbes de températures "instrumentales" (c'est-à-dire mesurées par les thermomètres) divergent des températures enregistrées dans les cernes de croissance du bois, telles que reconstituées à partir de la densité du bois final et/ou de la largeur des séries de cernes des arbres[9].
-Localisation
-Ce phénomène n’a été observé que dans des zones d’extrême climatique (taïga, en zone arctique) : là les thermomètres montrent une tendance substantielle au réchauffement, notamment depuis le milieu du XXe siècle et plus encore depuis la fin de ce siècle, mais l'analyse des cernes d'arbres ne montrent pas les modifications attendues de leur densité maximale de bois final, ni parfois de largeur des cernes, faisant que la dendroclimatologie ne fonctionne plus dans ce contexte géoclimatique spécifique, pour les dates comprises entre 1960 et nos jours. Durant cette période récente, les cernes n’épaississent pas comme on s’y attendrait dans un contexte de réchauffement[10] ; si l’on ne se fiait dans ces régions qu’à l'observation visuelle des cernes des arbres, on penserait que - depuis les années 1950 -  il n’y a pas de réchauffement, alors que les mesures de température faites in situ par les stations météorologiques ou d'autres instrumentations ne laissent pas de doutes à ce sujet[10].
-Histoire scientifique
-En 1995 G. Taubes [11] et Jacoby &amp; d'Arrigoe [12] ont identifié ce problème lors d’études faites en Alaska. Trois ans plus tard (en février 1998) Keith Briffa, spécialiste de la dendrochronologie, montrait que ce problème était autant plus répandu qu’on se rapproche des pôles, alertant sur l'importance de tenir compte de cette exception, pour ne pas se tromper dans l'estimation des températures du passé récent par la dendroclimatologie[8] (qui est l’un des moyens utilisé pour reconstruire les paléoclimats des périodes « pré-instrumentales »). 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine de la dendroclimatologie, on dit qu'il y a anomalie de divergence quand les courbes de températures "instrumentales" (c'est-à-dire mesurées par les thermomètres) divergent des températures enregistrées dans les cernes de croissance du bois, telles que reconstituées à partir de la densité du bois final et/ou de la largeur des séries de cernes des arbres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dendroclimatologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendroclimatologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Problème de divergence</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phénomène n’a été observé que dans des zones d’extrême climatique (taïga, en zone arctique) : là les thermomètres montrent une tendance substantielle au réchauffement, notamment depuis le milieu du XXe siècle et plus encore depuis la fin de ce siècle, mais l'analyse des cernes d'arbres ne montrent pas les modifications attendues de leur densité maximale de bois final, ni parfois de largeur des cernes, faisant que la dendroclimatologie ne fonctionne plus dans ce contexte géoclimatique spécifique, pour les dates comprises entre 1960 et nos jours. Durant cette période récente, les cernes n’épaississent pas comme on s’y attendrait dans un contexte de réchauffement ; si l’on ne se fiait dans ces régions qu’à l'observation visuelle des cernes des arbres, on penserait que - depuis les années 1950 -  il n’y a pas de réchauffement, alors que les mesures de température faites in situ par les stations météorologiques ou d'autres instrumentations ne laissent pas de doutes à ce sujet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dendroclimatologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendroclimatologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Problème de divergence</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histoire scientifique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995 G. Taubes  et Jacoby &amp; d'Arrigoe  ont identifié ce problème lors d’études faites en Alaska. Trois ans plus tard (en février 1998) Keith Briffa, spécialiste de la dendrochronologie, montrait que ce problème était autant plus répandu qu’on se rapproche des pôles, alertant sur l'importance de tenir compte de cette exception, pour ne pas se tromper dans l'estimation des températures du passé récent par la dendroclimatologie (qui est l’un des moyens utilisé pour reconstruire les paléoclimats des périodes « pré-instrumentales »). 
 Les évaluations faites à partir des cernes du bois sont cohérentes avec d'autres sources de données sur les températures passées pour la période 1600-1950, mais avant 1600 l'incertitude liée aux reconstructions de température augmente en raison de la rareté relative des ensembles de données et de leur distribution géographique plus limitée.
-Récemment la marge d’incertitude a même été jugées trop grande pour qu'on puisse savoir si l’enregistrement de cernes d’arbres dans les régions circumpolaires très froides diffèrent des autres approximations faites dans les mêmes périodes[13].
-Pistes d'explication à cette anomalie
-Des études plus récentes suggèrent que cette « divergence » a des causes anthropiques, c’est-à-dire résultant des activités humaines, ce qui expliquerait aussi qu’elle se limite au passé récent. Il est important de comprendre les causes de ce phénomène car l'utilisation sans précaution d'indications dendroclimatologiques provenant  des régions touchées par cette anomalie de divergence peut conduire à une fausse estimation des températures passées, et par suite à minimiser la tendance actuelle au réchauffement[10].
+Récemment la marge d’incertitude a même été jugées trop grande pour qu'on puisse savoir si l’enregistrement de cernes d’arbres dans les régions circumpolaires très froides diffèrent des autres approximations faites dans les mêmes périodes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dendroclimatologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendroclimatologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Problème de divergence</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pistes d'explication à cette anomalie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Des études plus récentes suggèrent que cette « divergence » a des causes anthropiques, c’est-à-dire résultant des activités humaines, ce qui expliquerait aussi qu’elle se limite au passé récent. Il est important de comprendre les causes de ce phénomène car l'utilisation sans précaution d'indications dendroclimatologiques provenant  des régions touchées par cette anomalie de divergence peut conduire à une fausse estimation des températures passées, et par suite à minimiser la tendance actuelle au réchauffement.
 À ce jour, il semble que cette divergence résulte des effets écologiques d’une autre variable (hydroclimatique) importante pour les forêts modernes de l’hémisphère nord, mais qui était restée non significative jusqu’aux années 1950. 
-Rosanne D'Arrigo (chercheuse au Tree Ring Lab de l'Observatoire de la Terre Lamont-Doherty de l'Université Columbia) a posé l’hypothèse qu' "au-delà d'un certain seuil de température, les arbres risquent d'être plus stressés physiologiquement, en particulier lors d'années plus sèches '(à de telles latitudes, les effets d'un stress, notamment hydrique, peuvent être exacerbés ; et si l’eau et l’humidité n'augmentent pas temporellement aussi vite que la température, la croissance des arbres, voire leur santé peuvent être affectées). Les images satellitales évoquent de tels stress, avec fréquemment "des signes de roussissement de la végétation nordique en dépit du réchauffement récent"[14].
+Rosanne D'Arrigo (chercheuse au Tree Ring Lab de l'Observatoire de la Terre Lamont-Doherty de l'Université Columbia) a posé l’hypothèse qu' "au-delà d'un certain seuil de température, les arbres risquent d'être plus stressés physiologiquement, en particulier lors d'années plus sèches '(à de telles latitudes, les effets d'un stress, notamment hydrique, peuvent être exacerbés ; et si l’eau et l’humidité n'augmentent pas temporellement aussi vite que la température, la croissance des arbres, voire leur santé peuvent être affectées). Les images satellitales évoquent de tels stress, avec fréquemment "des signes de roussissement de la végétation nordique en dépit du réchauffement récent".
 Les arbres pourraient aussi souffrir de l’acidification des pluies
 Les arbres de l'Arctique souffrent aussi de la fonte du pergélisol (qui libère par exemple du méthane et du mercure (économique) et déstabilise l’enracinement et la stabilité des grands arbres).
 dans ces zones géoclimatiques limites (été polaire caractérisé par le soleil de minuit), la réponse au réchauffement climatique rapide récent pourrait être retardée ou non linéaire, par exemple en raison de dates de fonte plus précoces, de changements dans la saisonnalité, de pullulations plus fréquentes.
-des aérosols atmosphériques pourraient aussi être en vue[10].
-En 2012, Brienen et al. ont proposé que le problème de la divergence soit en grande partie dû à l'échantillonnage de grands arbres vivants[15]).
-On a montré que le castor et ses barrages peuvent très fortement atténuer les stress hydriques induits par le réchauffement arctique grâce à une meilleure conservation de l'eau de fonte de neige et des tourbières qui jouent un rôle d'éponge profitable à des micro-climats plus cléments pour les arbres[16],[17], mais les populations de castor américain et eurasien ont été l'une des proies favorites des trappeurs et ont beaucoup régressé au XXe siècle. Il reste dans le grand nord canadien moins de 10 % des castors encore présents avant l’arrivée des colons européens[18]. Leurs barrages sont donc beaucoup moins présents[18]. Or dans les zones protégées il est courant de trouver des fréquences de 8,6 à 16 barrages par km de rivière (par exemple au Québec en la limite nord de la région du golfe du Saint-Laurent), et même plus de 5 barrages par 200 m de rivière dans le Waterton-Glacier International Peace Park, comme l’ont montré Naiman &amp; al; en 1988, (cités par les travaux de David R Butler sur la capacité du castor à  construire et entretenir de vastes zones humides et à remodeler les paysages grâce à ses barrages)[18]. En été la flore polaire est exposée au soleil de minuit, période durant laquelle elle a un métabolisme estival qui nécessite plus d’eau. Là où le castor régresse le stress hydrique estival augmente, de même que le risque d’incendie. Les études de ce type ont surtout concerné le Castor canadien, mais les chercheurs considèrent que les effets positifs des barrages sur l'environnement concernent aussi le Castor européen (là où il fait des barrages)[19],[20],[21] même si les barrages canadiens sont souvent plus imposants.</t>
+des aérosols atmosphériques pourraient aussi être en vue.
+En 2012, Brienen et al. ont proposé que le problème de la divergence soit en grande partie dû à l'échantillonnage de grands arbres vivants).
+On a montré que le castor et ses barrages peuvent très fortement atténuer les stress hydriques induits par le réchauffement arctique grâce à une meilleure conservation de l'eau de fonte de neige et des tourbières qui jouent un rôle d'éponge profitable à des micro-climats plus cléments pour les arbres mais les populations de castor américain et eurasien ont été l'une des proies favorites des trappeurs et ont beaucoup régressé au XXe siècle. Il reste dans le grand nord canadien moins de 10 % des castors encore présents avant l’arrivée des colons européens. Leurs barrages sont donc beaucoup moins présents. Or dans les zones protégées il est courant de trouver des fréquences de 8,6 à 16 barrages par km de rivière (par exemple au Québec en la limite nord de la région du golfe du Saint-Laurent), et même plus de 5 barrages par 200 m de rivière dans le Waterton-Glacier International Peace Park, comme l’ont montré Naiman &amp; al; en 1988, (cités par les travaux de David R Butler sur la capacité du castor à  construire et entretenir de vastes zones humides et à remodeler les paysages grâce à ses barrages). En été la flore polaire est exposée au soleil de minuit, période durant laquelle elle a un métabolisme estival qui nécessite plus d’eau. Là où le castor régresse le stress hydrique estival augmente, de même que le risque d’incendie. Les études de ce type ont surtout concerné le Castor canadien, mais les chercheurs considèrent que les effets positifs des barrages sur l'environnement concernent aussi le Castor européen (là où il fait des barrages) même si les barrages canadiens sont souvent plus imposants.</t>
         </is>
       </c>
     </row>
